--- a/55_系统运维/202102091335_一种简单粗暴判断 Excel 多字段列唯一性的方法/奥特曼喝咖啡.xlsx
+++ b/55_系统运维/202102091335_一种简单粗暴判断 Excel 多字段列唯一性的方法/奥特曼喝咖啡.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin_aota\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\writing\55_系统运维\202102091335_一种简单粗暴判断 Excel 多字段列唯一性的方法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3636DF41-1B68-46E9-926A-A70CEEFB9F02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="-120" windowWidth="19695" windowHeight="11760" xr2:uid="{E4D753FB-4390-4D4D-9D84-76DF6C714969}"/>
+    <workbookView xWindow="1905" yWindow="-120" windowWidth="19695" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A:$C</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$F:$H</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,7 +178,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,11 +547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C089BF9-20A9-49EF-B7F0-EAA58E289D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,7 +603,7 @@
         <v>14</v>
       </c>
       <c r="I2" t="str">
-        <f>IF(A2=F2,"",H2)</f>
+        <f>IF(A2=F2,"",C2)</f>
         <v/>
       </c>
       <c r="L2" t="s">
@@ -637,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I22" si="0">IF(A3=F3,"",H3)</f>
+        <f t="shared" ref="I3:I21" si="0">IF(A3=F3,"",C3)</f>
         <v/>
       </c>
       <c r="L3" t="s">
@@ -1157,7 +1156,7 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>高斯</v>
+        <v>赛文</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1180,7 +1179,7 @@
         <v>15</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I3:I22" si="1">IF(A22=F22,"",H22)</f>
         <v/>
       </c>
     </row>
